--- a/SRRK.xlsx
+++ b/SRRK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18BF166-FAC7-4013-9499-28D4EBB17AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EB6F22-5DCB-4615-AA52-1112A87406DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27060" yWindow="780" windowWidth="23100" windowHeight="19950" activeTab="1" xr2:uid="{BFFDE7D5-A60F-4969-9F8A-A610403E03CC}"/>
+    <workbookView xWindow="-37875" yWindow="660" windowWidth="34935" windowHeight="19950" xr2:uid="{BFFDE7D5-A60F-4969-9F8A-A610403E03CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Price</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Spinraza</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
@@ -120,37 +123,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -190,6 +162,43 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -203,16 +212,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9444BF-5B81-4263-93AA-AF5F08B91256}">
-  <dimension ref="B2:K7"/>
+  <dimension ref="B2:L7"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -561,72 +572,62 @@
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="H3" s="4"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="2">
         <v>80.031999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="9"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c r="L3" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+      <c r="H4" s="4"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>1920.768</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="9"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+        <v>2801.12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="5"/>
+      <c r="H5" s="4"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -634,15 +635,13 @@
         <f>93.372+97.122</f>
         <v>190.494</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="9"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="L5" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+      <c r="H6" s="4"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -650,21 +649,24 @@
         <f>48.485+1.588</f>
         <v>50.073</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
+      <c r="L6" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>1780.3470000000002</v>
+        <v>2660.6989999999996</v>
       </c>
     </row>
   </sheetData>
@@ -676,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63B37BC-7D10-4F90-9162-7EE68D609B54}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
